--- a/HANNAH MACHARIA-NGONG.xlsx
+++ b/HANNAH MACHARIA-NGONG.xlsx
@@ -2693,8 +2693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3992,7 +3992,9 @@
         <f t="shared" si="0"/>
         <v>8500</v>
       </c>
-      <c r="G51" s="15"/>
+      <c r="G51" s="15">
+        <v>7200</v>
+      </c>
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
@@ -4042,7 +4044,7 @@
       </c>
       <c r="G53" s="15">
         <f t="shared" si="3"/>
-        <v>50000</v>
+        <v>57200</v>
       </c>
       <c r="H53" s="15">
         <f t="shared" si="3"/>
@@ -4109,7 +4111,7 @@
       </c>
       <c r="F57" s="40">
         <f>G53</f>
-        <v>50000</v>
+        <v>57200</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
@@ -4288,7 +4290,7 @@
       <c r="E68" s="52"/>
       <c r="F68" s="52">
         <f>F57+F58</f>
-        <v>55335</v>
+        <v>62535</v>
       </c>
       <c r="G68" s="52">
         <f>SUM(G62:G67)</f>
@@ -4296,7 +4298,7 @@
       </c>
       <c r="H68" s="52">
         <f>F68-G68</f>
-        <v>42195</v>
+        <v>49395</v>
       </c>
       <c r="I68" s="53"/>
     </row>

--- a/HANNAH MACHARIA-NGONG.xlsx
+++ b/HANNAH MACHARIA-NGONG.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="11475" windowHeight="8505" activeTab="1"/>
+    <workbookView minimized="1" xWindow="120" yWindow="105" windowWidth="11475" windowHeight="8505" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NOVEMBER 21" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="137">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -425,6 +425,12 @@
   </si>
   <si>
     <t xml:space="preserve">THOMAS KITHOME </t>
+  </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                        </t>
   </si>
 </sst>
 </file>
@@ -1032,8 +1038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1481,7 +1487,7 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>44</v>
@@ -1495,10 +1501,12 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15">
+        <v>5000</v>
+      </c>
       <c r="H20" s="15">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -1815,7 +1823,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>131</v>
       </c>
@@ -1840,7 +1848,7 @@
       </c>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>94</v>
       </c>
@@ -1869,7 +1877,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
         <v>117</v>
       </c>
@@ -1894,7 +1902,7 @@
       </c>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>95</v>
       </c>
@@ -1919,9 +1927,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="15"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I36" s="15">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
         <v>96</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>130</v>
       </c>
@@ -1975,7 +1985,7 @@
       </c>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="24" t="s">
         <v>97</v>
       </c>
@@ -2000,7 +2010,7 @@
       </c>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="24" t="s">
         <v>98</v>
       </c>
@@ -2025,7 +2035,7 @@
       </c>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="24" t="s">
         <v>113</v>
       </c>
@@ -2050,7 +2060,7 @@
       </c>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
         <v>114</v>
       </c>
@@ -2077,7 +2087,7 @@
       </c>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="24" t="s">
         <v>99</v>
       </c>
@@ -2102,7 +2112,7 @@
       </c>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>115</v>
       </c>
@@ -2132,7 +2142,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>110</v>
       </c>
@@ -2159,7 +2169,7 @@
       </c>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>100</v>
       </c>
@@ -2183,8 +2193,12 @@
         <v>0</v>
       </c>
       <c r="I46" s="15"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K46" s="61">
+        <f>G47-E47</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>101</v>
       </c>
@@ -2210,9 +2224,11 @@
         <f>F47-G47</f>
         <v>2000</v>
       </c>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I47" s="15">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>121</v>
       </c>
@@ -2235,9 +2251,7 @@
         <f t="shared" ref="H48:H49" si="2">F48-G48</f>
         <v>0</v>
       </c>
-      <c r="I48" s="15">
-        <v>3000</v>
-      </c>
+      <c r="I48" s="15"/>
     </row>
     <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
@@ -2356,15 +2370,15 @@
       </c>
       <c r="G53" s="15">
         <f t="shared" si="3"/>
-        <v>247500</v>
+        <v>252500</v>
       </c>
       <c r="H53" s="15">
         <f t="shared" si="3"/>
-        <v>91000</v>
+        <v>86000</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="3"/>
-        <v>25000</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2423,7 +2437,7 @@
       </c>
       <c r="F57" s="40">
         <f>G53</f>
-        <v>247500</v>
+        <v>252500</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
@@ -2468,7 +2482,7 @@
       </c>
       <c r="B60" s="39">
         <f>I53</f>
-        <v>25000</v>
+        <v>30500</v>
       </c>
       <c r="C60" s="38"/>
       <c r="D60" s="38"/>
@@ -2607,7 +2621,7 @@
       </c>
       <c r="B68" s="52">
         <f>B57+B58+B59+B60</f>
-        <v>244000</v>
+        <v>249500</v>
       </c>
       <c r="C68" s="52">
         <f>SUM(C62:C67)</f>
@@ -2615,12 +2629,12 @@
       </c>
       <c r="D68" s="52">
         <f>B68-C68</f>
-        <v>1835</v>
+        <v>7335</v>
       </c>
       <c r="E68" s="52"/>
       <c r="F68" s="52">
         <f>F57+F58</f>
-        <v>247500</v>
+        <v>252500</v>
       </c>
       <c r="G68" s="52">
         <f>SUM(G62:G67)</f>
@@ -2628,7 +2642,7 @@
       </c>
       <c r="H68" s="52">
         <f>F68-G68</f>
-        <v>5335</v>
+        <v>10335</v>
       </c>
       <c r="I68" s="53"/>
     </row>
@@ -2693,8 +2707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2887,10 +2901,12 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15">
+        <v>4000</v>
+      </c>
       <c r="H9" s="15">
         <f>F9-G9</f>
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I9" s="15"/>
     </row>
@@ -2962,10 +2978,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15">
+        <v>4500</v>
+      </c>
       <c r="H12" s="15">
         <f t="shared" ref="H12:H50" si="1">F12-G12</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I12" s="15"/>
     </row>
@@ -2988,10 +3006,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15">
+        <v>2400</v>
+      </c>
       <c r="H13" s="15">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>2100</v>
       </c>
       <c r="I13" s="15"/>
     </row>
@@ -3014,10 +3034,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15">
+        <v>4500</v>
+      </c>
       <c r="H14" s="15">
         <f>F14-G14</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15"/>
     </row>
@@ -3148,10 +3170,12 @@
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15">
+        <v>5500</v>
+      </c>
       <c r="H19" s="15">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I19" s="15"/>
     </row>
@@ -3165,21 +3189,21 @@
       <c r="C20" s="13"/>
       <c r="D20" s="14">
         <f>'NOVEMBER 21'!H20:H66</f>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="E20" s="17">
         <v>5000</v>
       </c>
       <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>5000</v>
       </c>
       <c r="G20" s="15">
         <v>5000</v>
       </c>
       <c r="H20" s="15">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="15"/>
     </row>
@@ -3202,10 +3226,12 @@
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15">
+        <v>5500</v>
+      </c>
       <c r="H21" s="15">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I21" s="15"/>
     </row>
@@ -3254,10 +3280,12 @@
         <f t="shared" si="0"/>
         <v>11000</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15">
+        <v>5000</v>
+      </c>
       <c r="H23" s="15">
         <f t="shared" si="1"/>
-        <v>11000</v>
+        <v>6000</v>
       </c>
       <c r="I23" s="15"/>
     </row>
@@ -3280,10 +3308,12 @@
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="15">
+        <v>5500</v>
+      </c>
       <c r="H24" s="15">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="I24" s="15"/>
     </row>
@@ -3306,10 +3336,12 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="15">
+        <v>4000</v>
+      </c>
       <c r="H25" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I25" s="15"/>
     </row>
@@ -3332,10 +3364,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15">
+        <v>4500</v>
+      </c>
       <c r="H26" s="15">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I26" s="15"/>
     </row>
@@ -3358,14 +3392,16 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="15">
+        <v>4500</v>
+      </c>
       <c r="H27" s="15">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>90</v>
       </c>
@@ -3384,10 +3420,12 @@
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="15">
+        <v>5000</v>
+      </c>
       <c r="H28" s="15">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="I28" s="15"/>
     </row>
@@ -3492,10 +3530,12 @@
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="15">
+        <v>4500</v>
+      </c>
       <c r="H32" s="15">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="I32" s="15"/>
     </row>
@@ -3518,10 +3558,12 @@
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="15">
+        <v>4500</v>
+      </c>
       <c r="H33" s="15">
         <f t="shared" si="1"/>
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="I33" s="15"/>
     </row>
@@ -3553,12 +3595,14 @@
     </row>
     <row r="35" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="24" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C35" s="13"/>
+      <c r="C35" s="13">
+        <v>5000</v>
+      </c>
       <c r="D35" s="14">
         <f>'NOVEMBER 21'!H35:H81</f>
         <v>0</v>
@@ -3568,12 +3612,14 @@
       </c>
       <c r="F35" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="G35" s="15"/>
+        <v>10000</v>
+      </c>
+      <c r="G35" s="15">
+        <v>15000</v>
+      </c>
       <c r="H35" s="15">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>-5000</v>
       </c>
       <c r="I35" s="15"/>
     </row>
@@ -3702,10 +3748,12 @@
         <f t="shared" si="0"/>
         <v>4000</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="15">
+        <v>4000</v>
+      </c>
       <c r="H40" s="15">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="I40" s="15"/>
     </row>
@@ -3756,10 +3804,12 @@
         <f t="shared" si="0"/>
         <v>9000</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="15">
+        <v>4500</v>
+      </c>
       <c r="H42" s="15">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="I42" s="15"/>
     </row>
@@ -3782,10 +3832,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="15">
+        <v>4500</v>
+      </c>
       <c r="H43" s="15">
         <f t="shared" si="1"/>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I43" s="15"/>
     </row>
@@ -3808,10 +3860,12 @@
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="15">
+        <v>4500</v>
+      </c>
       <c r="H44" s="15">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="I44" s="15"/>
     </row>
@@ -3835,11 +3889,11 @@
         <v>11000</v>
       </c>
       <c r="G45" s="15">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="H45" s="15">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>5000</v>
       </c>
       <c r="I45" s="15">
         <v>1500</v>
@@ -3892,10 +3946,12 @@
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="G47" s="15"/>
+      <c r="G47" s="15">
+        <v>4500</v>
+      </c>
       <c r="H47" s="15">
         <f>F47-G47</f>
-        <v>6500</v>
+        <v>2000</v>
       </c>
       <c r="I47" s="15"/>
     </row>
@@ -3918,10 +3974,12 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G48" s="15"/>
+      <c r="G48" s="15">
+        <v>4500</v>
+      </c>
       <c r="H48" s="15">
         <f t="shared" ref="H48:H49" si="2">F48-G48</f>
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="I48" s="15"/>
     </row>
@@ -3944,10 +4002,12 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15">
+      <c r="G49" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="H49" s="15" t="e">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I49" s="15"/>
     </row>
@@ -4032,7 +4092,7 @@
       <c r="C53" s="13"/>
       <c r="D53" s="14">
         <f t="shared" ref="D53:I53" si="3">SUM(D6:D52)</f>
-        <v>91000</v>
+        <v>86000</v>
       </c>
       <c r="E53" s="29">
         <f t="shared" si="3"/>
@@ -4044,11 +4104,11 @@
       </c>
       <c r="G53" s="15">
         <f t="shared" si="3"/>
-        <v>57200</v>
-      </c>
-      <c r="H53" s="15">
+        <v>164100</v>
+      </c>
+      <c r="H53" s="15" t="e">
         <f t="shared" si="3"/>
-        <v>247000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I53" s="15">
         <f t="shared" si="3"/>
@@ -4111,7 +4171,7 @@
       </c>
       <c r="F57" s="40">
         <f>G53</f>
-        <v>57200</v>
+        <v>164100</v>
       </c>
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
@@ -4123,7 +4183,7 @@
       </c>
       <c r="B58" s="39">
         <f>'NOVEMBER 21'!D68</f>
-        <v>1835</v>
+        <v>7335</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="38"/>
@@ -4132,7 +4192,7 @@
       </c>
       <c r="F58" s="40">
         <f>'NOVEMBER 21'!H68</f>
-        <v>5335</v>
+        <v>10335</v>
       </c>
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
@@ -4143,8 +4203,8 @@
         <v>31</v>
       </c>
       <c r="B59" s="39">
-        <f>C53</f>
-        <v>0</v>
+        <f>5000</f>
+        <v>5000</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="38"/>
@@ -4217,13 +4277,21 @@
       <c r="I62" s="41"/>
     </row>
     <row r="63" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="45" t="s">
+        <v>135</v>
+      </c>
       <c r="B63" s="46"/>
-      <c r="C63" s="47"/>
+      <c r="C63" s="47">
+        <v>219695</v>
+      </c>
       <c r="D63" s="40"/>
-      <c r="E63" s="45"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="42"/>
+      <c r="E63" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="46"/>
+      <c r="G63" s="47">
+        <v>219695</v>
+      </c>
       <c r="H63" s="47"/>
       <c r="I63" s="48"/>
     </row>
@@ -4277,28 +4345,28 @@
       </c>
       <c r="B68" s="52">
         <f>B57+B58+B59+B60</f>
-        <v>222335</v>
+        <v>232835</v>
       </c>
       <c r="C68" s="52">
         <f>SUM(C62:C67)</f>
-        <v>13140</v>
+        <v>232835</v>
       </c>
       <c r="D68" s="52">
         <f>B68-C68</f>
-        <v>209195</v>
+        <v>0</v>
       </c>
       <c r="E68" s="52"/>
       <c r="F68" s="52">
         <f>F57+F58</f>
-        <v>62535</v>
+        <v>174435</v>
       </c>
       <c r="G68" s="52">
         <f>SUM(G62:G67)</f>
-        <v>13140</v>
+        <v>232835</v>
       </c>
       <c r="H68" s="52">
         <f>F68-G68</f>
-        <v>49395</v>
+        <v>-58400</v>
       </c>
       <c r="I68" s="53"/>
     </row>
@@ -4311,7 +4379,7 @@
       <c r="F69" s="34"/>
       <c r="G69" s="54">
         <f>G68-G62</f>
-        <v>0</v>
+        <v>219695</v>
       </c>
       <c r="H69" s="34"/>
       <c r="I69" s="35"/>
